--- a/ky/downloads/data-excel/16.5.1.1a.xlsx
+++ b/ky/downloads/data-excel/16.5.1.1a.xlsx
@@ -8210,11 +8210,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -8223,7 +8221,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="59.25" customHeight="1">
+    <row r="1" spans="1:12" ht="67.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -8235,7 +8233,7 @@
       </c>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>33</v>
       </c>
@@ -8247,13 +8245,13 @@
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -8287,8 +8285,11 @@
       <c r="K4" s="20">
         <v>2022</v>
       </c>
+      <c r="L4" s="20">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="30" customFormat="1" ht="12.95" customHeight="1">
+    <row r="5" spans="1:12" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
@@ -8322,8 +8323,11 @@
       <c r="K5" s="36">
         <v>26.495524312074597</v>
       </c>
+      <c r="L5" s="36">
+        <v>22.743990309495757</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="31" customFormat="1" ht="12.95" customHeight="1">
+    <row r="6" spans="1:12" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
@@ -8357,8 +8361,11 @@
       <c r="K6" s="37">
         <v>59.383769502755833</v>
       </c>
+      <c r="L6" s="37">
+        <v>52.401334422687093</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="31" customFormat="1" ht="12.95" customHeight="1">
+    <row r="7" spans="1:12" s="31" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
@@ -8392,8 +8399,11 @@
       <c r="K7" s="37">
         <v>38.32334404557426</v>
       </c>
+      <c r="L7" s="37">
+        <v>40.084286291781751</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
@@ -8427,8 +8437,11 @@
       <c r="K8" s="37">
         <v>48.136790950525594</v>
       </c>
+      <c r="L8" s="37">
+        <v>58.6564425462321</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
@@ -8462,8 +8475,11 @@
       <c r="K9" s="37">
         <v>46.63213064070051</v>
       </c>
+      <c r="L9" s="37">
+        <v>52.689880705632987</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -8497,8 +8513,11 @@
       <c r="K10" s="37">
         <v>32.657429481680126</v>
       </c>
+      <c r="L10" s="37">
+        <v>19.88866894869804</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -8532,8 +8551,11 @@
       <c r="K11" s="37">
         <v>31.457245964894081</v>
       </c>
+      <c r="L11" s="37">
+        <v>35.972443863264772</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
@@ -8567,8 +8589,11 @@
       <c r="K12" s="37">
         <v>22.734405597714229</v>
       </c>
+      <c r="L12" s="37">
+        <v>12.061786277026036</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>27</v>
       </c>
@@ -8602,8 +8627,11 @@
       <c r="K13" s="37">
         <v>-0.19691879995369213</v>
       </c>
+      <c r="L13" s="37">
+        <v>-6.4288010286095529E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="12.95" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>29</v>
       </c>
@@ -8637,13 +8665,16 @@
       <c r="K14" s="38">
         <v>33.158040409631916</v>
       </c>
+      <c r="L14" s="38">
+        <v>34.132731805770057</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="12.95" customHeight="1">
